--- a/ArgParsers.xlsx
+++ b/ArgParsers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\IASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441CCDEF-16E0-4C2D-97DC-5E0EA8AD5E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF85B70-C5A1-411D-8306-7C82CF7CD030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="2220" windowWidth="20736" windowHeight="11832" xr2:uid="{2C114DC6-F7EC-464F-B2E4-24EEB3E8BCB9}"/>
+    <workbookView xWindow="4980" yWindow="1785" windowWidth="20730" windowHeight="11835" xr2:uid="{2C114DC6-F7EC-464F-B2E4-24EEB3E8BCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -146,8 +146,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -484,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055843E3-3B0E-4C56-A215-1CA4DC33B41E}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,11 +530,11 @@
         <v>0.7</v>
       </c>
       <c r="C3" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>CONCATENATE("python YOLOUltralytics.py --video_path './data/", A3, ".mp4' --height_fraction ", B3, " --video_no '", A3, "' --speed_limit ", C3)</f>
-        <v>python YOLOUltralytics.py --video_path './data/two.mp4' --height_fraction 0.7 --video_no 'two' --speed_limit 100</v>
+        <v>python YOLOUltralytics.py --video_path './data/two.mp4' --height_fraction 0.7 --video_no 'two' --speed_limit 110</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -610,24 +609,12 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="8"/>
+      <c r="D11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>